--- a/5_Snowballing/Backward_Snowballing_1.xlsx
+++ b/5_Snowballing/Backward_Snowballing_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F04488-7EFF-7A4C-8990-995DED27EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73658DBA-5C75-3644-81B3-9D380B942965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14940" yWindow="14160" windowWidth="22280" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="311">
   <si>
     <t>ID</t>
   </si>
@@ -973,27 +973,6 @@
   </si>
   <si>
     <t>Regression testing is crucial but can be extremely costly. Regression Test Selection (RTS) aims to reduce regression testing cost by only selecting and running the tests that may be affected by code changes. To date, various RTS techniques analyzing at different granularities (e.g., at the basic-block, method, and file levels) have been proposed. RTS techniques working on finer granularities may be more precise in selecting tests, while techniques working on coarser granularities may have lower overhead. According to a recent study, RTS at the file level (FRTS) can have less overall testing time compared with a finer grained technique at the method level, and represents state-of-the-art RTS. In this paper, we present the first hybrid RTS approach, HyRTS, that analyzes at multiple granularities to combine the strengths of traditional RTS techniques at different granularities. We implemented the basic HyRTS technique by combining the method and file granularity RTS. The experimental results on 2707 revisions of 32 projects, totalling over 124 Million LoC, demonstrate that HyRTS outperforms state-of-the-art FRTS significantly in terms of selected test ratio and the offline testing time. We also studied the impacts of each type of method-level changes, and further designed two new HyRTS variants based on the study results. Our additional experiments show that transforming instance method additions/deletions into file-level changes produces an even more effective HyRTS variant that can significantly outperform FRTS in both offline and online testing time.</t>
-  </si>
-  <si>
-    <t>State of practical applicability of regression testing research: A live systematic literature review</t>
-  </si>
-  <si>
-    <t>R Greca, B Miranda, A Bertolino</t>
-  </si>
-  <si>
-    <t>ACM Computing Surveys, 2023</t>
-  </si>
-  <si>
-    <t>Context
-Software regression testing refers to rerunning test cases after the system under test is modified, ascertaining that the changes have not (re-)introduced failures. Not all researchers’ approaches consider applicability and scalability concerns, and not many have produced an impact in practice.
-Objective
-One goal is to investigate industrial relevance and applicability of proposed approaches. Another is providing a live review, open to continuous updates by the community.
-Method
-A systematic review of regression testing studies that are clearly motivated by or validated against industrial relevance and applicability is conducted. It is complemented by follow-up surveys with authors of the selected papers and 23 practitioners.
-Results
-A set of 79 primary studies published between 2016–2022 is collected and classified according to approaches and metrics. Aspects relative to their relevance and impact are discussed, also based on their authors’ feedback. All the data are made available from the live repository that accompanies the study.
-Conclusions
-While widely motivated by industrial relevance and applicability, not many approaches are evaluated in industrial or large-scale open-source systems, and even fewer approaches have been adopted in practice. Some challenges hindering the implementation of relevant approaches are synthesized, also based on the practitioners’ feedback.</t>
   </si>
   <si>
     <t>Hansie: Hybrid and consensus regression test prioritization</t>
@@ -1412,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AN70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD71"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2839,103 +2818,83 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="3:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>299</v>
       </c>
       <c r="D67" t="s">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
         <v>298</v>
       </c>
       <c r="F67">
-        <v>2023</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>301</v>
+        <v>2021</v>
+      </c>
+      <c r="J67" t="s">
+        <v>300</v>
       </c>
       <c r="AN67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
         <v>302</v>
       </c>
       <c r="F68">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J68" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
         <v>304</v>
       </c>
-      <c r="AN68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>305</v>
-      </c>
-      <c r="D69" t="s">
-        <v>147</v>
       </c>
       <c r="E69" t="s">
         <v>306</v>
       </c>
       <c r="F69">
-        <v>2024</v>
-      </c>
-      <c r="J69" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>307</v>
       </c>
       <c r="AN69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
+    <row r="70" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" t="s">
         <v>309</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70">
+        <v>2015</v>
+      </c>
+      <c r="J70" t="s">
         <v>310</v>
       </c>
-      <c r="F70">
-        <v>2020</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="AN70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D71" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" t="s">
-        <v>313</v>
-      </c>
-      <c r="F71">
-        <v>2015</v>
-      </c>
-      <c r="J71" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN71" t="s">
         <v>45</v>
       </c>
     </row>

--- a/5_Snowballing/Backward_Snowballing_1.xlsx
+++ b/5_Snowballing/Backward_Snowballing_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73658DBA-5C75-3644-81B3-9D380B942965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391A2B6B-955F-994B-8D3C-024DD72A35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="14160" windowWidth="22280" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="299">
   <si>
     <t>ID</t>
   </si>
@@ -195,18 +195,6 @@
   </si>
   <si>
     <t>Software quality can be assured by going through software testing process. However, software testing phase is an expensive process as it consumes a longer time. By scheduling test cases execution order through a prioritization approach, software testing efficiency can be improved especially during regression testing. It is a notable step to be taken in constructing important software testing environment so that a system's commercial value can increase. The main idea of this review is to examine and classify the current test case prioritization approaches based on the articulated research questions. Set of search keywords with appropriate repositories were utilized to extract most important studies that fulfill all the criteria defined and classified under journal, conference paper, symposiums and workshops categories. 69 primary studies were nominated from the review strategy. There were 40 journal articles, 21 conference papers, three workshop articles, and five symposium articles collected from the primary studies. As for the result, it can be said that TCP approaches are still broadly open for improvements. Each approach in TCP has specified potential values, advantages, and limitation. Additionally, we found that variations in the starting point of TCP process among the approaches provide a different timeline and benefit to project manager to choose which approaches suite with the project schedule and available resources. Test case prioritization has already been considerably discussed in the software testing domain. However, it is commonly learned that there are quite a number of existing prioritization techniques that can still be improved especially in data used and execution process for each approach.</t>
-  </si>
-  <si>
-    <t>Prioritizing test cases for regression techniques using metaheuristic techniques</t>
-  </si>
-  <si>
-    <t>Regression testing attempts to find new errors after some alterations have been done in the software. Previously run test cases are re-executed to check whether historical faults have re-emerged or to validate the functionality of the software. In the past, several methods have been analyzed for reducing the cost of regression testing, which includes regression test selection, regression test minimization and regression test prioritization. Test Suite Prioritization techniques orders the test cases so that all the test cases are executed on a priority basis. Artificial bee colony (ABC) algorithm is a very powerful and efficient algorithm influenced by the intelligent nature of bees. In this paper, we have applied the ABC algorithm for test suite prioritization and the comparison has been made with Genetic Algorithm and Cuscuta Search. From our experimental results, we can infer that results of Cuscuta Search are low as compared to ABC and GA for small test suites.</t>
-  </si>
-  <si>
-    <t>S Mittal, OP Sangwan</t>
-  </si>
-  <si>
-    <t>Journal of Information and Optimization Sciences, 2018</t>
   </si>
   <si>
     <t>Information and Software Technology</t>
@@ -443,18 +431,6 @@
   </si>
   <si>
     <t>S Sampath, R Bryce, AM Memon</t>
-  </si>
-  <si>
-    <t>Ants optimization for minimal test case selection and prioritization as to reduce the cost of regression testing</t>
-  </si>
-  <si>
-    <t>International journal of computer applications, 2014</t>
-  </si>
-  <si>
-    <t>N Sethi, S Rani, P Singh</t>
-  </si>
-  <si>
-    <t>Software testing is the major process in software development life cycle. Regression testing is very costly and inevitable activity that is to be performed in a restricted environment to ensure the validity of modified software. It is inefficient to rerun every test case from test suite when some kind of modification is done in the software. Test case selection and prioritization techniques select and organize the test cases in a test suite based on some criteria such that the faults are covered quickly with minimum execution time. This task can be done on basis of the Ant Colony Optimization technique (ACO) of Swarm Intelligence as it is not deeply studied yet. The main objective of this thesis is to solve the path problem: Means to find the shortest path and Resolve the time problem: Means to minimize the time of finding shortest path. Because of time and cost constraint, it is not possible to perform extensive regression testing. Techniques such as test case selection and prioritization are used to solve the problem of time and cost constraints. In this paper we are modifying the previous technique to get better results in case of execution time and then the Effectiveness of techniques is checked with the help of APFD metric.</t>
   </si>
   <si>
     <t>Analysis of test case prioritization in regression testing using genetic algorithm</t>
@@ -903,18 +879,6 @@
   </si>
   <si>
     <t>Y Lu, Y Lou, S Cheng, L Zhang, D Hao, Y Zhou, L Zhang</t>
-  </si>
-  <si>
-    <t>Test pair selection for test case prioritization in regression testing for WS-BPEL programs</t>
-  </si>
-  <si>
-    <t>L Mei, Y Cai, C Jia, B Jiang, WK Chan</t>
-  </si>
-  <si>
-    <t>Many web services not only communicate through XML-based messages, but also may dynamically modify their behaviors by applying different interpretations on XML messages through updating the associated XML Schemas or XML-based interface specifications. Such artifacts are usually complex, allowing XML-based messages conforming to these specifications structurally complex. Testing should cost-effectively cover all scenarios. Test case prioritization is a dimension of regression testing that assures a program from unintended modifications by reordering the test cases within a test suite. However, many existing test case prioritization techniques for regression testing treat test cases of different complexity generically. In this paper, the authors exploit the insights on the structural similarity of XML-based artifacts between test cases in both static and dynamic dimensions, and propose a family of test case prioritization techniques that selects pairs of test case without replacement in turn. To the best of their knowledge, it is the first test case prioritization proposal that selects test case pairs for prioritization. The authors validate their techniques by a suite of benchmarks. The empirical results show that when incorporating all dimensions, some members of our technique family can be more effective than conventional coverage-based techniques.</t>
-  </si>
-  <si>
-    <t>International Journal of Web Services Research (IJWSR), 2013</t>
   </si>
   <si>
     <t>Inspecting code churns to prioritize test cases</t>
@@ -1391,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1546,7 +1510,7 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
@@ -1561,68 +1525,68 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>2017</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4">
-        <v>2018</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
       <c r="AN4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>2017</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>61</v>
+      <c r="J5" t="s">
+        <v>60</v>
       </c>
       <c r="AN5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6">
+        <v>2019</v>
+      </c>
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6">
-        <v>2017</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
       <c r="AN6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>68</v>
       </c>
       <c r="D7" t="s">
@@ -1652,13 +1616,13 @@
         <v>71</v>
       </c>
       <c r="F8">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
       </c>
       <c r="AN8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -1666,16 +1630,16 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
         <v>75</v>
       </c>
       <c r="F9">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s">
         <v>44</v>
@@ -1692,10 +1656,10 @@
         <v>79</v>
       </c>
       <c r="F10">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AN10" t="s">
         <v>44</v>
@@ -1703,45 +1667,45 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
-        <v>85</v>
-      </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>2018</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>86</v>
       </c>
       <c r="F12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AN12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>92</v>
       </c>
@@ -1754,28 +1718,28 @@
       <c r="F13">
         <v>2019</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="AN13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
       </c>
       <c r="F14">
-        <v>2019</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>95</v>
+        <v>2013</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
       </c>
       <c r="AN14" t="s">
         <v>45</v>
@@ -1783,19 +1747,19 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>2016</v>
+      </c>
+      <c r="J15" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15">
-        <v>2013</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
       </c>
       <c r="AN15" t="s">
         <v>45</v>
@@ -1803,27 +1767,27 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
       </c>
       <c r="E16" t="s">
         <v>100</v>
       </c>
       <c r="F16">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AN16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -1832,16 +1796,16 @@
         <v>104</v>
       </c>
       <c r="F17">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AN17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="3:40" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>109</v>
       </c>
@@ -1852,13 +1816,13 @@
         <v>108</v>
       </c>
       <c r="F18">
-        <v>2014</v>
-      </c>
-      <c r="J18" t="s">
+        <v>2017</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AN18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1872,16 +1836,16 @@
         <v>112</v>
       </c>
       <c r="F19">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>115</v>
       </c>
       <c r="AN19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>117</v>
       </c>
@@ -1892,9 +1856,9 @@
         <v>116</v>
       </c>
       <c r="F20">
-        <v>2018</v>
-      </c>
-      <c r="J20" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J20" t="s">
         <v>119</v>
       </c>
       <c r="AN20" t="s">
@@ -1906,44 +1870,44 @@
         <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
         <v>120</v>
       </c>
       <c r="F21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AN21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
         <v>124</v>
       </c>
       <c r="F22">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AN22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
         <v>130</v>
@@ -1955,7 +1919,7 @@
         <v>2013</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AN23" t="s">
         <v>45</v>
@@ -1972,7 +1936,7 @@
         <v>132</v>
       </c>
       <c r="F24">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J24" t="s">
         <v>135</v>
@@ -1983,38 +1947,38 @@
     </row>
     <row r="25" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
         <v>136</v>
       </c>
       <c r="F25">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AN25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
         <v>142</v>
-      </c>
-      <c r="D26" t="s">
-        <v>141</v>
       </c>
       <c r="E26" t="s">
         <v>140</v>
       </c>
       <c r="F26">
-        <v>2018</v>
-      </c>
-      <c r="J26" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>143</v>
       </c>
       <c r="AN26" t="s">
@@ -2023,38 +1987,38 @@
     </row>
     <row r="27" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
         <v>146</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
       </c>
       <c r="E27" t="s">
         <v>144</v>
       </c>
       <c r="F27">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="3:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
         <v>149</v>
-      </c>
-      <c r="D28" t="s">
-        <v>150</v>
       </c>
       <c r="E28" t="s">
         <v>148</v>
       </c>
       <c r="F28">
-        <v>2020</v>
-      </c>
-      <c r="J28" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J28" t="s">
         <v>151</v>
       </c>
       <c r="AN28" t="s">
@@ -2063,16 +2027,16 @@
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" t="s">
         <v>153</v>
-      </c>
-      <c r="D29" t="s">
-        <v>154</v>
       </c>
       <c r="E29" t="s">
         <v>152</v>
       </c>
       <c r="F29">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="J29" t="s">
         <v>155</v>
@@ -2083,16 +2047,16 @@
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
         <v>158</v>
-      </c>
-      <c r="D30" t="s">
-        <v>157</v>
       </c>
       <c r="E30" t="s">
         <v>156</v>
       </c>
       <c r="F30">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J30" t="s">
         <v>159</v>
@@ -2101,47 +2065,47 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
         <v>162</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>2019</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31">
-        <v>2020</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="AN31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="3:40" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" t="s">
         <v>163</v>
       </c>
-      <c r="AN31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32">
+        <v>2018</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32">
-        <v>2021</v>
-      </c>
-      <c r="J32" t="s">
-        <v>167</v>
-      </c>
       <c r="AN32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>168</v>
       </c>
@@ -2149,33 +2113,33 @@
         <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="F33">
-        <v>2019</v>
-      </c>
-      <c r="J33" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J33" t="s">
         <v>169</v>
       </c>
       <c r="AN33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:40" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s">
         <v>171</v>
       </c>
       <c r="F34">
-        <v>2018</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>174</v>
+        <v>2016</v>
+      </c>
+      <c r="J34" t="s">
+        <v>173</v>
       </c>
       <c r="AN34" t="s">
         <v>45</v>
@@ -2192,7 +2156,7 @@
         <v>175</v>
       </c>
       <c r="F35">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="J35" t="s">
         <v>177</v>
@@ -2206,16 +2170,16 @@
         <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
         <v>179</v>
       </c>
       <c r="F36">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN36" t="s">
         <v>45</v>
@@ -2226,7 +2190,7 @@
         <v>184</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
         <v>183</v>
@@ -2235,7 +2199,7 @@
         <v>2017</v>
       </c>
       <c r="J37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN37" t="s">
         <v>45</v>
@@ -2246,16 +2210,16 @@
         <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
         <v>187</v>
       </c>
       <c r="F38">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN38" t="s">
         <v>45</v>
@@ -2272,7 +2236,7 @@
         <v>191</v>
       </c>
       <c r="F39">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="J39" t="s">
         <v>194</v>
@@ -2286,16 +2250,16 @@
         <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
         <v>195</v>
       </c>
       <c r="F40">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="J40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN40" t="s">
         <v>45</v>
@@ -2312,7 +2276,7 @@
         <v>199</v>
       </c>
       <c r="F41">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J41" t="s">
         <v>202</v>
@@ -2321,7 +2285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:40" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>204</v>
       </c>
@@ -2332,9 +2296,9 @@
         <v>203</v>
       </c>
       <c r="F42">
-        <v>2014</v>
-      </c>
-      <c r="J42" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>206</v>
       </c>
       <c r="AN42" t="s">
@@ -2343,16 +2307,16 @@
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
         <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F43">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="J43" t="s">
         <v>210</v>
@@ -2361,7 +2325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="3:40" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>212</v>
       </c>
@@ -2372,9 +2336,9 @@
         <v>211</v>
       </c>
       <c r="F44">
-        <v>2023</v>
-      </c>
-      <c r="J44" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J44" t="s">
         <v>214</v>
       </c>
       <c r="AN44" t="s">
@@ -2383,13 +2347,13 @@
     </row>
     <row r="45" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D45" t="s">
         <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F45">
         <v>2014</v>
@@ -2406,16 +2370,16 @@
         <v>220</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E46" t="s">
         <v>219</v>
       </c>
       <c r="F46">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="J46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN46" t="s">
         <v>45</v>
@@ -2423,19 +2387,19 @@
     </row>
     <row r="47" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E47" t="s">
         <v>223</v>
       </c>
       <c r="F47">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="J47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AN47" t="s">
         <v>45</v>
@@ -2446,16 +2410,16 @@
         <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
         <v>227</v>
       </c>
       <c r="F48">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN48" t="s">
         <v>45</v>
@@ -2463,19 +2427,19 @@
     </row>
     <row r="49" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" t="s">
         <v>233</v>
-      </c>
-      <c r="D49" t="s">
-        <v>234</v>
       </c>
       <c r="E49" t="s">
         <v>231</v>
       </c>
       <c r="F49">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="J49" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AN49" t="s">
         <v>45</v>
@@ -2492,7 +2456,7 @@
         <v>235</v>
       </c>
       <c r="F50">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="J50" t="s">
         <v>238</v>
@@ -2503,39 +2467,36 @@
     </row>
     <row r="51" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
         <v>239</v>
       </c>
-      <c r="F51">
+      <c r="J51" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" t="s">
+        <v>244</v>
+      </c>
+      <c r="E52" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52">
         <v>2016</v>
       </c>
-      <c r="J51" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="J52" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E52" t="s">
-        <v>243</v>
-      </c>
-      <c r="F52">
-        <v>2020</v>
-      </c>
-      <c r="J52" t="s">
-        <v>246</v>
       </c>
       <c r="AN52" t="s">
         <v>45</v>
@@ -2543,13 +2504,16 @@
     </row>
     <row r="53" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="F53">
+        <v>2022</v>
       </c>
       <c r="J53" t="s">
         <v>248</v>
@@ -2558,21 +2522,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>251</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54">
+        <v>2022</v>
+      </c>
+      <c r="J54" t="s">
         <v>250</v>
-      </c>
-      <c r="F54">
-        <v>2016</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="AN54" t="s">
         <v>45</v>
@@ -2580,19 +2544,19 @@
     </row>
     <row r="55" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" t="s">
         <v>255</v>
       </c>
-      <c r="D55" t="s">
-        <v>147</v>
-      </c>
       <c r="E55" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55">
+        <v>2024</v>
+      </c>
+      <c r="J55" t="s">
         <v>254</v>
-      </c>
-      <c r="F55">
-        <v>2022</v>
-      </c>
-      <c r="J55" t="s">
-        <v>256</v>
       </c>
       <c r="AN55" t="s">
         <v>45</v>
@@ -2603,13 +2567,13 @@
         <v>259</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="E56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="J56" t="s">
         <v>258</v>
@@ -2629,7 +2593,7 @@
         <v>260</v>
       </c>
       <c r="F57">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="J57" t="s">
         <v>262</v>
@@ -2640,19 +2604,19 @@
     </row>
     <row r="58" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D58" t="s">
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
         <v>264</v>
       </c>
       <c r="F58">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN58" t="s">
         <v>45</v>
@@ -2660,19 +2624,19 @@
     </row>
     <row r="59" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" t="s">
+        <v>270</v>
+      </c>
+      <c r="E59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59">
+        <v>2020</v>
+      </c>
+      <c r="J59" t="s">
         <v>269</v>
-      </c>
-      <c r="D59" t="s">
-        <v>271</v>
-      </c>
-      <c r="E59" t="s">
-        <v>268</v>
-      </c>
-      <c r="F59">
-        <v>2018</v>
-      </c>
-      <c r="J59" t="s">
-        <v>270</v>
       </c>
       <c r="AN59" t="s">
         <v>45</v>
@@ -2680,19 +2644,19 @@
     </row>
     <row r="60" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" t="s">
+        <v>273</v>
+      </c>
+      <c r="E60" t="s">
+        <v>271</v>
+      </c>
+      <c r="F60">
+        <v>2015</v>
+      </c>
+      <c r="J60" t="s">
         <v>274</v>
-      </c>
-      <c r="D60" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" t="s">
-        <v>272</v>
-      </c>
-      <c r="F60">
-        <v>2016</v>
-      </c>
-      <c r="J60" t="s">
-        <v>273</v>
       </c>
       <c r="AN60" t="s">
         <v>45</v>
@@ -2703,35 +2667,35 @@
         <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E61" t="s">
         <v>275</v>
       </c>
       <c r="F61">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="J61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>280</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="E62" t="s">
         <v>279</v>
       </c>
       <c r="F62">
-        <v>2020</v>
-      </c>
-      <c r="J62" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>281</v>
       </c>
       <c r="AN62" t="s">
@@ -2743,16 +2707,16 @@
         <v>284</v>
       </c>
       <c r="D63" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" t="s">
+        <v>282</v>
+      </c>
+      <c r="F63">
+        <v>2018</v>
+      </c>
+      <c r="J63" t="s">
         <v>285</v>
-      </c>
-      <c r="E63" t="s">
-        <v>283</v>
-      </c>
-      <c r="F63">
-        <v>2015</v>
-      </c>
-      <c r="J63" t="s">
-        <v>286</v>
       </c>
       <c r="AN63" t="s">
         <v>45</v>
@@ -2760,141 +2724,81 @@
     </row>
     <row r="64" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" t="s">
+        <v>286</v>
+      </c>
+      <c r="F64">
+        <v>2021</v>
+      </c>
+      <c r="J64" t="s">
         <v>288</v>
       </c>
-      <c r="D64" t="s">
+      <c r="AN64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
         <v>289</v>
       </c>
-      <c r="E64" t="s">
-        <v>287</v>
-      </c>
-      <c r="F64">
-        <v>2019</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" t="s">
         <v>290</v>
       </c>
-      <c r="AN64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="3:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
+      <c r="F65">
+        <v>2024</v>
+      </c>
+      <c r="J65" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
         <v>292</v>
       </c>
-      <c r="D65" t="s">
-        <v>252</v>
-      </c>
-      <c r="E65" t="s">
-        <v>291</v>
-      </c>
-      <c r="F65">
-        <v>2016</v>
-      </c>
-      <c r="J65" s="2" t="s">
+      <c r="D66" t="s">
         <v>293</v>
-      </c>
-      <c r="AN65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>296</v>
-      </c>
-      <c r="D66" t="s">
-        <v>295</v>
       </c>
       <c r="E66" t="s">
         <v>294</v>
       </c>
       <c r="F66">
-        <v>2018</v>
-      </c>
-      <c r="J66" t="s">
-        <v>297</v>
+        <v>2020</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="AN66" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>299</v>
+    <row r="67" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
       </c>
       <c r="E67" t="s">
+        <v>297</v>
+      </c>
+      <c r="F67">
+        <v>2015</v>
+      </c>
+      <c r="J67" t="s">
         <v>298</v>
       </c>
-      <c r="F67">
-        <v>2021</v>
-      </c>
-      <c r="J67" t="s">
-        <v>300</v>
-      </c>
       <c r="AN67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>301</v>
-      </c>
-      <c r="D68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" t="s">
-        <v>302</v>
-      </c>
-      <c r="F68">
-        <v>2024</v>
-      </c>
-      <c r="J68" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>304</v>
-      </c>
-      <c r="D69" t="s">
-        <v>305</v>
-      </c>
-      <c r="E69" t="s">
-        <v>306</v>
-      </c>
-      <c r="F69">
-        <v>2020</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D70" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" t="s">
-        <v>309</v>
-      </c>
-      <c r="F70">
-        <v>2015</v>
-      </c>
-      <c r="J70" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN70" t="s">
         <v>45</v>
       </c>
     </row>

--- a/5_Snowballing/Backward_Snowballing_1.xlsx
+++ b/5_Snowballing/Backward_Snowballing_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391A2B6B-955F-994B-8D3C-024DD72A35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA1BFF9-6597-154A-A5A9-E0DCD270C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B59" sqref="A59:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="AC50" workbookViewId="0">
+      <selection activeCell="AP71" sqref="AP71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2699,7 +2699,7 @@
         <v>281</v>
       </c>
       <c r="AN62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="3:40" x14ac:dyDescent="0.2">

--- a/5_Snowballing/Backward_Snowballing_1.xlsx
+++ b/5_Snowballing/Backward_Snowballing_1.xlsx
@@ -2805,4 +2805,231 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B6889C2593FACB4192549183B8B19287" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8f919e2780f892880bff7efb43d3db1d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" xmlns:ns3="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ca4d89da73e1329ebe7ff2e4ed471c6" ns2:_="" ns3:_="">
+    <xsd:import namespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <xsd:import namespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="75195dc1-fe89-472b-8717-1a0640488213" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9d5b2749-c0c4-4483-901e-60ca1fd7f0c8}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94938947-D3FB-4C4F-AC3A-8ADD833FB410}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A91DD2-672F-4BCE-B66C-C5F5DA651FB3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3677C3C-B56C-4706-8251-166ABA5ABBE9}"/>
 </file>